--- a/medicine/Nettoyage et hygiène/Nettoyeur_à_vapeur/Nettoyeur_à_vapeur.xlsx
+++ b/medicine/Nettoyage et hygiène/Nettoyeur_à_vapeur/Nettoyeur_à_vapeur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nettoyeur_%C3%A0_vapeur</t>
+          <t>Nettoyeur_à_vapeur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nettoyeur à vapeur est un appareil électroménager muni d'une chaudière remplie d'eau qui est chauffée de 70 à 120 °C (environ) et transforme ainsi l'eau liquide en vapeur. La capacité du réservoir est d'environ 500 ml.
 La vapeur d'eau sort de l'accessoire de l'appareil et permet, grâce à la température élevée, de nettoyer et dégraisser des sols, murs, tissus et des endroits inaccessibles ou poreux comme les joints. L'emploi de la vapeur sous pression permet de nettoyer des taches incrustées ainsi que la graisse sans utilisation de détergent, ce qui est un argument écologique mis en avant par les marques.
